--- a/Youngs_modulus/polyethylene_dL-01-02-03p/calc_Youngs_modulus.xlsx
+++ b/Youngs_modulus/polyethylene_dL-01-02-03p/calc_Youngs_modulus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\mopac-Exercise\Youngs_modulus\PM7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B0DD0F-F496-4BE4-9642-CF833B29A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF7118-5131-4C28-8A57-99770D3FFF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1460" windowWidth="12250" windowHeight="9990" xr2:uid="{455742C6-91C9-4155-8A0A-244BA9EC8F68}"/>
+    <workbookView xWindow="140" yWindow="650" windowWidth="14720" windowHeight="9990" xr2:uid="{455742C6-91C9-4155-8A0A-244BA9EC8F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>MOLECULAR WEIGHT</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>[g/cm^3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>times</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B878B8D-9233-4346-91D7-287C8958283C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -549,7 +553,7 @@
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -564,7 +568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -578,7 +582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -589,15 +593,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -618,7 +625,7 @@
         <v>7.7469279999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -635,14 +642,17 @@
         <v>12</v>
       </c>
       <c r="F7" s="6">
-        <f>F6*1.001</f>
+        <f>F6*G7</f>
         <v>7.7546749279999991</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -659,14 +669,17 @@
         <v>13</v>
       </c>
       <c r="F8" s="6">
-        <f>F6*1.002</f>
+        <f>F6*G8</f>
         <v>7.7624218559999996</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>1.002</v>
+      </c>
+      <c r="H8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -683,32 +696,35 @@
         <v>14</v>
       </c>
       <c r="F9" s="6">
-        <f>F6*1.003</f>
+        <f>F6*G9</f>
         <v>7.7701687839999991</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="H9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5">
-        <f>2*((B9-B6) -2*(B8-B6) +(B7-B6))/(B3^2*(0.003^2 -2*0.002^2+0.001^2))</f>
-        <v>429.56003957575837</v>
+        <f>2*((B9-B6) -2*(B8-B6) +(B7-B6))/(B3^2*((G9-1)^2 -2*(G8-1)^2+(G7-1)^2))</f>
+        <v>429.56003957594868</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f>B11*(B3^2/(B2/B1))/1000</f>
-        <v>0.28181291052379187</v>
+        <v>0.28181291052391672</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
